--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.0687699417925</v>
+        <v>10.91244366666667</v>
       </c>
       <c r="H2">
-        <v>10.0687699417925</v>
+        <v>32.737331</v>
       </c>
       <c r="I2">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890978</v>
       </c>
       <c r="J2">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>52.34577676354668</v>
+        <v>73.60155528401988</v>
       </c>
       <c r="R2">
-        <v>52.34577676354668</v>
+        <v>662.413997556179</v>
       </c>
       <c r="S2">
-        <v>0.002304806458804989</v>
+        <v>0.003004958249887104</v>
       </c>
       <c r="T2">
-        <v>0.002304806458804989</v>
+        <v>0.003004958249887104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0687699417925</v>
+        <v>10.91244366666667</v>
       </c>
       <c r="H3">
-        <v>10.0687699417925</v>
+        <v>32.737331</v>
       </c>
       <c r="I3">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890978</v>
       </c>
       <c r="J3">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>1833.013297165101</v>
+        <v>1991.866700844395</v>
       </c>
       <c r="R3">
-        <v>1833.013297165101</v>
+        <v>17926.80030759955</v>
       </c>
       <c r="S3">
-        <v>0.08070834263221099</v>
+        <v>0.0813226874388797</v>
       </c>
       <c r="T3">
-        <v>0.08070834263221099</v>
+        <v>0.0813226874388797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.0687699417925</v>
+        <v>10.91244366666667</v>
       </c>
       <c r="H4">
-        <v>10.0687699417925</v>
+        <v>32.737331</v>
       </c>
       <c r="I4">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890978</v>
       </c>
       <c r="J4">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>2506.877029840801</v>
+        <v>2718.648893174992</v>
       </c>
       <c r="R4">
-        <v>2506.877029840801</v>
+        <v>24467.84003857493</v>
       </c>
       <c r="S4">
-        <v>0.1103788448093223</v>
+        <v>0.1109952960717714</v>
       </c>
       <c r="T4">
-        <v>0.1103788448093223</v>
+        <v>0.1109952960717714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.0687699417925</v>
+        <v>10.91244366666667</v>
       </c>
       <c r="H5">
-        <v>10.0687699417925</v>
+        <v>32.737331</v>
       </c>
       <c r="I5">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890978</v>
       </c>
       <c r="J5">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>1831.626461342631</v>
+        <v>2039.874949161303</v>
       </c>
       <c r="R5">
-        <v>1831.626461342631</v>
+        <v>18358.87454245173</v>
       </c>
       <c r="S5">
-        <v>0.08064727967052511</v>
+        <v>0.0832827381645176</v>
       </c>
       <c r="T5">
-        <v>0.08064727967052511</v>
+        <v>0.08328273816451759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.0687699417925</v>
+        <v>10.91244366666667</v>
       </c>
       <c r="H6">
-        <v>10.0687699417925</v>
+        <v>32.737331</v>
       </c>
       <c r="I6">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890978</v>
       </c>
       <c r="J6">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>155.9343635624459</v>
+        <v>190.5360824451382</v>
       </c>
       <c r="R6">
-        <v>155.9343635624459</v>
+        <v>1714.824742006244</v>
       </c>
       <c r="S6">
-        <v>0.006865855289755751</v>
+        <v>0.007779087964041954</v>
       </c>
       <c r="T6">
-        <v>0.006865855289755751</v>
+        <v>0.007779087964041954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.1045491652706</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H7">
-        <v>17.1045491652706</v>
+        <v>51.481286</v>
       </c>
       <c r="I7">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328814</v>
       </c>
       <c r="J7">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>88.92356438992866</v>
+        <v>115.7425667236415</v>
       </c>
       <c r="R7">
-        <v>88.92356438992866</v>
+        <v>1041.683100512774</v>
       </c>
       <c r="S7">
-        <v>0.003915341756636156</v>
+        <v>0.004725465099170652</v>
       </c>
       <c r="T7">
-        <v>0.003915341756636156</v>
+        <v>0.004725465099170652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.1045491652706</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H8">
-        <v>17.1045491652706</v>
+        <v>51.481286</v>
       </c>
       <c r="I8">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328814</v>
       </c>
       <c r="J8">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>3113.872522980064</v>
+        <v>3132.321914087827</v>
       </c>
       <c r="R8">
-        <v>3113.872522980064</v>
+        <v>28190.89722679044</v>
       </c>
       <c r="S8">
-        <v>0.137105110413755</v>
+        <v>0.1278844793526257</v>
       </c>
       <c r="T8">
-        <v>0.137105110413755</v>
+        <v>0.1278844793526257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.1045491652706</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H9">
-        <v>17.1045491652706</v>
+        <v>51.481286</v>
       </c>
       <c r="I9">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328814</v>
       </c>
       <c r="J9">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>4258.613679335487</v>
+        <v>4275.227604935943</v>
       </c>
       <c r="R9">
-        <v>4258.613679335487</v>
+        <v>38477.0484444235</v>
       </c>
       <c r="S9">
-        <v>0.187508542628467</v>
+        <v>0.17454631783286</v>
       </c>
       <c r="T9">
-        <v>0.187508542628467</v>
+        <v>0.17454631783286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.1045491652706</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H10">
-        <v>17.1045491652706</v>
+        <v>51.481286</v>
       </c>
       <c r="I10">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328814</v>
       </c>
       <c r="J10">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328813</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>3111.516604467006</v>
+        <v>3207.817572605675</v>
       </c>
       <c r="R10">
-        <v>3111.516604467006</v>
+        <v>28870.35815345107</v>
       </c>
       <c r="S10">
-        <v>0.1370013783356192</v>
+        <v>0.1309667688642866</v>
       </c>
       <c r="T10">
-        <v>0.1370013783356192</v>
+        <v>0.1309667688642866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.1045491652706</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H11">
-        <v>17.1045491652706</v>
+        <v>51.481286</v>
       </c>
       <c r="I11">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328814</v>
       </c>
       <c r="J11">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328813</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>264.8970036586423</v>
+        <v>299.6286579891849</v>
       </c>
       <c r="R11">
-        <v>264.8970036586423</v>
+        <v>2696.657921902664</v>
       </c>
       <c r="S11">
-        <v>0.01166352593655086</v>
+        <v>0.01223305138393846</v>
       </c>
       <c r="T11">
-        <v>0.01166352593655086</v>
+        <v>0.01223305138393846</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.25721619399661</v>
+        <v>4.33904</v>
       </c>
       <c r="H12">
-        <v>4.25721619399661</v>
+        <v>13.01712</v>
       </c>
       <c r="I12">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="J12">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>22.13252361642795</v>
+        <v>29.26568073978666</v>
       </c>
       <c r="R12">
-        <v>22.13252361642795</v>
+        <v>263.39112665808</v>
       </c>
       <c r="S12">
-        <v>0.0009745042777991789</v>
+        <v>0.001194840902997572</v>
       </c>
       <c r="T12">
-        <v>0.0009745042777991789</v>
+        <v>0.001194840902997573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.25721619399661</v>
+        <v>4.33904</v>
       </c>
       <c r="H13">
-        <v>4.25721619399661</v>
+        <v>13.01712</v>
       </c>
       <c r="I13">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="J13">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>775.0235567616078</v>
+        <v>792.0122709116267</v>
       </c>
       <c r="R13">
-        <v>775.0235567616078</v>
+        <v>7128.110438204641</v>
       </c>
       <c r="S13">
-        <v>0.0341246115693162</v>
+        <v>0.03233578146961308</v>
       </c>
       <c r="T13">
-        <v>0.0341246115693162</v>
+        <v>0.03233578146961308</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.25721619399661</v>
+        <v>4.33904</v>
       </c>
       <c r="H14">
-        <v>4.25721619399661</v>
+        <v>13.01712</v>
       </c>
       <c r="I14">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="J14">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>1059.942530169324</v>
+        <v>1080.997680608907</v>
       </c>
       <c r="R14">
-        <v>1059.942530169324</v>
+        <v>9728.97912548016</v>
       </c>
       <c r="S14">
-        <v>0.04666971321357154</v>
+        <v>0.04413429697130096</v>
       </c>
       <c r="T14">
-        <v>0.04666971321357154</v>
+        <v>0.04413429697130096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.25721619399661</v>
+        <v>4.33904</v>
       </c>
       <c r="H15">
-        <v>4.25721619399661</v>
+        <v>13.01712</v>
       </c>
       <c r="I15">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="J15">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>774.4371832566053</v>
+        <v>811.1014608437868</v>
       </c>
       <c r="R15">
-        <v>774.4371832566053</v>
+        <v>7299.91314759408</v>
       </c>
       <c r="S15">
-        <v>0.03409879329848022</v>
+        <v>0.0331151429728986</v>
       </c>
       <c r="T15">
-        <v>0.03409879329848022</v>
+        <v>0.0331151429728986</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.25721619399661</v>
+        <v>4.33904</v>
       </c>
       <c r="H16">
-        <v>4.25721619399661</v>
+        <v>13.01712</v>
       </c>
       <c r="I16">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="J16">
-        <v>0.1187706016202051</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>65.93122115176841</v>
+        <v>75.76155336298667</v>
       </c>
       <c r="R16">
-        <v>65.93122115176841</v>
+        <v>681.8539802668801</v>
       </c>
       <c r="S16">
-        <v>0.002902979261037906</v>
+        <v>0.003093145300039572</v>
       </c>
       <c r="T16">
-        <v>0.002902979261037906</v>
+        <v>0.003093145300039572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.85370074502619</v>
+        <v>3.892394333333333</v>
       </c>
       <c r="H17">
-        <v>2.85370074502619</v>
+        <v>11.677183</v>
       </c>
       <c r="I17">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="J17">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>14.83589187285716</v>
+        <v>26.25317348369411</v>
       </c>
       <c r="R17">
-        <v>14.83589187285716</v>
+        <v>236.278561353247</v>
       </c>
       <c r="S17">
-        <v>0.0006532305283223162</v>
+        <v>0.001071848141538827</v>
       </c>
       <c r="T17">
-        <v>0.0006532305283223162</v>
+        <v>0.001071848141538827</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.85370074502619</v>
+        <v>3.892394333333333</v>
       </c>
       <c r="H18">
-        <v>2.85370074502619</v>
+        <v>11.677183</v>
       </c>
       <c r="I18">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="J18">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>519.5144433731825</v>
+        <v>710.4852859680668</v>
       </c>
       <c r="R18">
-        <v>519.5144433731825</v>
+        <v>6394.367573712601</v>
       </c>
       <c r="S18">
-        <v>0.02287443837041003</v>
+        <v>0.02900724873617827</v>
       </c>
       <c r="T18">
-        <v>0.02287443837041003</v>
+        <v>0.02900724873617826</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.85370074502619</v>
+        <v>3.892394333333333</v>
       </c>
       <c r="H19">
-        <v>2.85370074502619</v>
+        <v>11.677183</v>
       </c>
       <c r="I19">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="J19">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>710.5015696159767</v>
+        <v>969.7235439978854</v>
       </c>
       <c r="R19">
-        <v>710.5015696159767</v>
+        <v>8727.511895980968</v>
       </c>
       <c r="S19">
-        <v>0.03128368147136523</v>
+        <v>0.03959126614106861</v>
       </c>
       <c r="T19">
-        <v>0.03128368147136523</v>
+        <v>0.0395912661410686</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.85370074502619</v>
+        <v>3.892394333333333</v>
       </c>
       <c r="H20">
-        <v>2.85370074502619</v>
+        <v>11.677183</v>
       </c>
       <c r="I20">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="J20">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>519.1213849914051</v>
+        <v>727.6095011677108</v>
       </c>
       <c r="R20">
-        <v>519.1213849914051</v>
+        <v>6548.485510509397</v>
       </c>
       <c r="S20">
-        <v>0.02285713184535643</v>
+        <v>0.0297063854804827</v>
       </c>
       <c r="T20">
-        <v>0.02285713184535643</v>
+        <v>0.02970638548048269</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.85370074502619</v>
+        <v>3.892394333333333</v>
       </c>
       <c r="H21">
-        <v>2.85370074502619</v>
+        <v>11.677183</v>
       </c>
       <c r="I21">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="J21">
-        <v>0.07961440971890135</v>
+        <v>0.1021514961941619</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>44.19507169652512</v>
+        <v>67.96292290336578</v>
       </c>
       <c r="R21">
-        <v>44.19507169652512</v>
+        <v>611.666306130292</v>
       </c>
       <c r="S21">
-        <v>0.001945927503447349</v>
+        <v>0.002774747694893494</v>
       </c>
       <c r="T21">
-        <v>0.001945927503447349</v>
+        <v>0.002774747694893494</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.5597871037672</v>
+        <v>1.799827666666667</v>
       </c>
       <c r="H22">
-        <v>1.5597871037672</v>
+        <v>5.399483</v>
       </c>
       <c r="I22">
-        <v>0.04351596072924622</v>
+        <v>0.04723444576700921</v>
       </c>
       <c r="J22">
-        <v>0.04351596072924622</v>
+        <v>0.0472344457670092</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>8.109060789397814</v>
+        <v>12.13936305710522</v>
       </c>
       <c r="R22">
-        <v>8.109060789397814</v>
+        <v>109.254267513947</v>
       </c>
       <c r="S22">
-        <v>0.0003570453403847825</v>
+        <v>0.0004956183198311178</v>
       </c>
       <c r="T22">
-        <v>0.0003570453403847825</v>
+        <v>0.0004956183198311178</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.5597871037672</v>
+        <v>1.799827666666667</v>
       </c>
       <c r="H23">
-        <v>1.5597871037672</v>
+        <v>5.399483</v>
       </c>
       <c r="I23">
-        <v>0.04351596072924622</v>
+        <v>0.04723444576700921</v>
       </c>
       <c r="J23">
-        <v>0.04351596072924622</v>
+        <v>0.0472344457670092</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>283.9582708196155</v>
+        <v>328.5255719067446</v>
       </c>
       <c r="R23">
-        <v>283.9582708196155</v>
+        <v>2956.730147160701</v>
       </c>
       <c r="S23">
-        <v>0.01250280150722521</v>
+        <v>0.0134128365058393</v>
       </c>
       <c r="T23">
-        <v>0.01250280150722521</v>
+        <v>0.0134128365058393</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.5597871037672</v>
+        <v>1.799827666666667</v>
       </c>
       <c r="H24">
-        <v>1.5597871037672</v>
+        <v>5.399483</v>
       </c>
       <c r="I24">
-        <v>0.04351596072924622</v>
+        <v>0.04723444576700921</v>
       </c>
       <c r="J24">
-        <v>0.04351596072924622</v>
+        <v>0.0472344457670092</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>388.3487739297566</v>
+        <v>448.3963118944299</v>
       </c>
       <c r="R24">
-        <v>388.3487739297566</v>
+        <v>4035.566807049869</v>
       </c>
       <c r="S24">
-        <v>0.01709915904898029</v>
+        <v>0.01830684408021828</v>
       </c>
       <c r="T24">
-        <v>0.01709915904898029</v>
+        <v>0.01830684408021828</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.5597871037672</v>
+        <v>1.799827666666667</v>
       </c>
       <c r="H25">
-        <v>1.5597871037672</v>
+        <v>5.399483</v>
       </c>
       <c r="I25">
-        <v>0.04351596072924622</v>
+        <v>0.04723444576700921</v>
       </c>
       <c r="J25">
-        <v>0.04351596072924622</v>
+        <v>0.0472344457670092</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>283.7434314059199</v>
+        <v>336.4437409427886</v>
       </c>
       <c r="R25">
-        <v>283.7434314059199</v>
+        <v>3027.993668485097</v>
       </c>
       <c r="S25">
-        <v>0.01249334203792498</v>
+        <v>0.01373611455719356</v>
       </c>
       <c r="T25">
-        <v>0.01249334203792498</v>
+        <v>0.01373611455719356</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.5597871037672</v>
+        <v>1.799827666666667</v>
       </c>
       <c r="H26">
-        <v>1.5597871037672</v>
+        <v>5.399483</v>
       </c>
       <c r="I26">
-        <v>0.04351596072924622</v>
+        <v>0.04723444576700921</v>
       </c>
       <c r="J26">
-        <v>0.04351596072924622</v>
+        <v>0.0472344457670092</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>24.15631807310406</v>
+        <v>31.42578538394356</v>
       </c>
       <c r="R26">
-        <v>24.15631807310406</v>
+        <v>282.832068455492</v>
       </c>
       <c r="S26">
-        <v>0.001063612794730943</v>
+        <v>0.001283032303926949</v>
       </c>
       <c r="T26">
-        <v>0.001063612794730943</v>
+        <v>0.001283032303926949</v>
       </c>
     </row>
   </sheetData>
